--- a/Excel-export.xlsx
+++ b/Excel-export.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -36,6 +36,30 @@
   </si>
   <si>
     <t>john,</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Try Update</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Sir Maxi</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Nike</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Updated Angelo</t>
   </si>
 </sst>
 </file>
@@ -232,12 +256,620 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1085850" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1085850" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1085850" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1085850" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1085850" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1085850" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1085850" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1085850" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1085850" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1085850" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1085850" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1085850" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1085850" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1085850" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1085850" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1085850" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -287,6 +919,66 @@
       <c r="L2"/>
       <c r="M2"/>
     </row>
+    <row r="3" ht="60.0" customHeight="true">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+    </row>
+    <row r="4" ht="60.0" customHeight="true">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+    </row>
+    <row r="5" ht="60.0" customHeight="true">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+    </row>
+    <row r="6" ht="60.0" customHeight="true">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
